--- a/hiqu/HR/Performance Evaluation/October 2024/Dev/Abid Ali.xlsx
+++ b/hiqu/HR/Performance Evaluation/October 2024/Dev/Abid Ali.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\September 2024\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\HR\Performance Evaluation\October 2024\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E168A35-9DAE-425E-91A4-2E50B22ABDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B2BBD4-B02D-4BD8-9E29-1AF5BA294E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="127">
   <si>
     <t>Employee Name</t>
   </si>
@@ -418,17 +418,21 @@
   </si>
   <si>
     <t>Production upgrades</t>
+  </si>
+  <si>
+    <t>Diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,12 +534,6 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -811,7 +809,7 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -956,9 +954,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -976,11 +971,11 @@
     <xf numFmtId="43" fontId="13" fillId="4" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,6 +988,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1059,10 +1078,10 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1079,9 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3091,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L6" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3103,18 +3119,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="85"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
     </row>
@@ -3122,11 +3138,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -3134,11 +3150,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -3146,11 +3162,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -3158,11 +3174,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -3170,11 +3186,11 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
@@ -3182,12 +3198,12 @@
       <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="83">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.3506849315068492</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
+        <v>1.3835616438356164</v>
+      </c>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
@@ -3195,11 +3211,11 @@
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
@@ -3478,13 +3494,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
@@ -3501,12 +3517,12 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="20"/>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
@@ -3526,13 +3542,13 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -3623,13 +3639,13 @@
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -4182,8 +4198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E32AE3-B424-4525-B4B8-18EA241F10A7}">
   <dimension ref="B2:Y51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4214,88 +4230,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
     </row>
     <row r="3" spans="2:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="86"/>
-      <c r="U3" s="86"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="86"/>
-      <c r="Y3" s="86"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="88"/>
-      <c r="X4" s="88"/>
-      <c r="Y4" s="88"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
     </row>
     <row r="6" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
@@ -4304,42 +4320,42 @@
       <c r="C6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="31"/>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="101" t="s">
         <v>80</v>
       </c>
       <c r="K6" s="32"/>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
       <c r="O6" s="34"/>
-      <c r="P6" s="96" t="s">
+      <c r="P6" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
       <c r="S6" s="34"/>
       <c r="T6" s="35" t="s">
         <v>11</v>
       </c>
       <c r="U6" s="34"/>
-      <c r="V6" s="89" t="s">
+      <c r="V6" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="91"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="98"/>
     </row>
     <row r="7" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="37"/>
@@ -4359,8 +4375,8 @@
       <c r="H7" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="95"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="102"/>
       <c r="K7" s="32"/>
       <c r="L7" s="30" t="s">
         <v>10</v>
@@ -4418,7 +4434,7 @@
       <c r="O8" s="34"/>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
-      <c r="R8" s="104" t="str">
+      <c r="R8" s="74" t="str">
         <f t="shared" ref="R8:R46" si="0">IF(P8&gt;0,IF(Q8&gt;0,P8-Q8,""),"")</f>
         <v/>
       </c>
@@ -4435,7 +4451,7 @@
     </row>
     <row r="9" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="41"/>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="70" t="s">
         <v>88</v>
       </c>
       <c r="D9" s="47"/>
@@ -4452,14 +4468,14 @@
       <c r="K9" s="32"/>
       <c r="L9" s="42"/>
       <c r="M9" s="44"/>
-      <c r="N9" s="104" t="str">
+      <c r="N9" s="74" t="str">
         <f t="shared" ref="N9:N46" si="1">IF(L9&gt;0,IF(M9&gt;0,L9-M9,""),"")</f>
         <v/>
       </c>
       <c r="O9" s="34"/>
       <c r="P9" s="44"/>
       <c r="Q9" s="44"/>
-      <c r="R9" s="104" t="str">
+      <c r="R9" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4485,7 +4501,7 @@
     </row>
     <row r="10" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="41"/>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D10" s="47"/>
@@ -4500,14 +4516,14 @@
       <c r="K10" s="32"/>
       <c r="L10" s="42"/>
       <c r="M10" s="44"/>
-      <c r="N10" s="104" t="str">
+      <c r="N10" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O10" s="34"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44"/>
-      <c r="R10" s="104" t="str">
+      <c r="R10" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4524,7 +4540,7 @@
     </row>
     <row r="11" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="41"/>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="70" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="47"/>
@@ -4539,14 +4555,14 @@
       <c r="K11" s="32"/>
       <c r="L11" s="42"/>
       <c r="M11" s="44"/>
-      <c r="N11" s="104" t="str">
+      <c r="N11" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O11" s="34"/>
       <c r="P11" s="44"/>
       <c r="Q11" s="44"/>
-      <c r="R11" s="104" t="str">
+      <c r="R11" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4563,7 +4579,7 @@
     </row>
     <row r="12" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="41"/>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="70" t="s">
         <v>91</v>
       </c>
       <c r="D12" s="47"/>
@@ -4580,14 +4596,14 @@
       <c r="K12" s="32"/>
       <c r="L12" s="42"/>
       <c r="M12" s="44"/>
-      <c r="N12" s="104" t="str">
+      <c r="N12" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44"/>
-      <c r="R12" s="104" t="str">
+      <c r="R12" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4604,7 +4620,7 @@
     </row>
     <row r="13" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="41"/>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="70" t="s">
         <v>92</v>
       </c>
       <c r="D13" s="47"/>
@@ -4619,14 +4635,14 @@
       <c r="K13" s="32"/>
       <c r="L13" s="42"/>
       <c r="M13" s="44"/>
-      <c r="N13" s="104" t="str">
+      <c r="N13" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O13" s="34"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
-      <c r="R13" s="104" t="str">
+      <c r="R13" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4643,7 +4659,7 @@
     </row>
     <row r="14" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="41"/>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="60" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="47"/>
@@ -4658,14 +4674,14 @@
       <c r="K14" s="32"/>
       <c r="L14" s="42"/>
       <c r="M14" s="44"/>
-      <c r="N14" s="104" t="str">
+      <c r="N14" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O14" s="34"/>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
-      <c r="R14" s="104" t="str">
+      <c r="R14" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4682,7 +4698,7 @@
     </row>
     <row r="15" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="41"/>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="47"/>
@@ -4703,7 +4719,7 @@
       <c r="M15" s="44">
         <v>28</v>
       </c>
-      <c r="N15" s="104">
+      <c r="N15" s="74">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -4712,7 +4728,7 @@
         <v>6</v>
       </c>
       <c r="Q15" s="44"/>
-      <c r="R15" s="104" t="str">
+      <c r="R15" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4729,7 +4745,7 @@
     </row>
     <row r="16" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="41"/>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="60" t="s">
         <v>95</v>
       </c>
       <c r="D16" s="47"/>
@@ -4744,14 +4760,14 @@
       <c r="K16" s="32"/>
       <c r="L16" s="56"/>
       <c r="M16" s="54"/>
-      <c r="N16" s="104" t="str">
+      <c r="N16" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O16" s="34"/>
       <c r="P16" s="54"/>
       <c r="Q16" s="54"/>
-      <c r="R16" s="104" t="str">
+      <c r="R16" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4768,7 +4784,7 @@
     </row>
     <row r="17" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B17" s="41"/>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="60" t="s">
         <v>96</v>
       </c>
       <c r="D17" s="47"/>
@@ -4783,14 +4799,14 @@
       <c r="K17" s="32"/>
       <c r="L17" s="56"/>
       <c r="M17" s="54"/>
-      <c r="N17" s="104" t="str">
+      <c r="N17" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O17" s="34"/>
       <c r="P17" s="54"/>
       <c r="Q17" s="54"/>
-      <c r="R17" s="104" t="str">
+      <c r="R17" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4828,14 +4844,14 @@
       <c r="K18" s="32"/>
       <c r="L18" s="56"/>
       <c r="M18" s="54"/>
-      <c r="N18" s="104" t="str">
+      <c r="N18" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O18" s="34"/>
       <c r="P18" s="54"/>
       <c r="Q18" s="54"/>
-      <c r="R18" s="104" t="str">
+      <c r="R18" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4869,7 +4885,7 @@
         <v>44</v>
       </c>
       <c r="M19" s="44"/>
-      <c r="N19" s="104" t="str">
+      <c r="N19" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4880,7 +4896,7 @@
       <c r="Q19" s="44">
         <v>9</v>
       </c>
-      <c r="R19" s="104">
+      <c r="R19" s="74">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
@@ -4918,7 +4934,7 @@
       <c r="M20" s="44">
         <v>7</v>
       </c>
-      <c r="N20" s="104">
+      <c r="N20" s="74">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -4927,7 +4943,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="44"/>
-      <c r="R20" s="104" t="str">
+      <c r="R20" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -4961,14 +4977,14 @@
       <c r="M21" s="54">
         <v>2</v>
       </c>
-      <c r="N21" s="104" t="str">
+      <c r="N21" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O21" s="34"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="104" t="str">
+      <c r="R21" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5000,14 +5016,14 @@
       <c r="K22" s="32"/>
       <c r="L22" s="56"/>
       <c r="M22" s="54"/>
-      <c r="N22" s="104" t="str">
+      <c r="N22" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O22" s="34"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
-      <c r="R22" s="104" t="str">
+      <c r="R22" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5037,14 +5053,14 @@
       <c r="K23" s="32"/>
       <c r="L23" s="56"/>
       <c r="M23" s="54"/>
-      <c r="N23" s="104" t="str">
+      <c r="N23" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O23" s="34"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
-      <c r="R23" s="104" t="str">
+      <c r="R23" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5076,14 +5092,14 @@
       <c r="K24" s="32"/>
       <c r="L24" s="56"/>
       <c r="M24" s="54"/>
-      <c r="N24" s="104" t="str">
+      <c r="N24" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O24" s="34"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
-      <c r="R24" s="104" t="str">
+      <c r="R24" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5113,7 +5129,7 @@
       <c r="K25" s="32"/>
       <c r="L25" s="42"/>
       <c r="M25" s="44"/>
-      <c r="N25" s="104" t="str">
+      <c r="N25" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5122,7 +5138,7 @@
       <c r="Q25" s="44">
         <v>3</v>
       </c>
-      <c r="R25" s="104" t="str">
+      <c r="R25" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5161,7 +5177,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="42"/>
       <c r="M26" s="44"/>
-      <c r="N26" s="104" t="str">
+      <c r="N26" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5170,7 +5186,7 @@
       <c r="Q26" s="44">
         <v>5</v>
       </c>
-      <c r="R26" s="104" t="str">
+      <c r="R26" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5200,14 +5216,14 @@
       <c r="K27" s="32"/>
       <c r="L27" s="42"/>
       <c r="M27" s="44"/>
-      <c r="N27" s="104" t="str">
+      <c r="N27" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O27" s="44"/>
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
-      <c r="R27" s="104" t="str">
+      <c r="R27" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5224,7 +5240,7 @@
     </row>
     <row r="28" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="51"/>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="71" t="s">
         <v>97</v>
       </c>
       <c r="D28" s="44"/>
@@ -5239,14 +5255,14 @@
       <c r="K28" s="32"/>
       <c r="L28" s="42"/>
       <c r="M28" s="44"/>
-      <c r="N28" s="104" t="str">
+      <c r="N28" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O28" s="44"/>
       <c r="P28" s="44"/>
       <c r="Q28" s="44"/>
-      <c r="R28" s="104" t="str">
+      <c r="R28" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5276,7 +5292,7 @@
       <c r="K29" s="32"/>
       <c r="L29" s="42"/>
       <c r="M29" s="44"/>
-      <c r="N29" s="104" t="str">
+      <c r="N29" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5285,7 +5301,7 @@
       <c r="Q29" s="44">
         <v>16</v>
       </c>
-      <c r="R29" s="104" t="str">
+      <c r="R29" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5315,7 +5331,7 @@
       <c r="K30" s="32"/>
       <c r="L30" s="56"/>
       <c r="M30" s="54"/>
-      <c r="N30" s="104" t="str">
+      <c r="N30" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5324,7 +5340,7 @@
       <c r="Q30" s="54">
         <v>11</v>
       </c>
-      <c r="R30" s="104" t="str">
+      <c r="R30" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5354,7 +5370,7 @@
       <c r="K31" s="32"/>
       <c r="L31" s="42"/>
       <c r="M31" s="44"/>
-      <c r="N31" s="104" t="str">
+      <c r="N31" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5363,7 +5379,7 @@
       <c r="Q31" s="44">
         <v>3</v>
       </c>
-      <c r="R31" s="104" t="str">
+      <c r="R31" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5397,14 +5413,14 @@
       <c r="K32" s="32"/>
       <c r="L32" s="42"/>
       <c r="M32" s="44"/>
-      <c r="N32" s="104" t="str">
+      <c r="N32" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O32" s="44"/>
       <c r="P32" s="44"/>
       <c r="Q32" s="44"/>
-      <c r="R32" s="104" t="str">
+      <c r="R32" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5436,14 +5452,14 @@
       <c r="K33" s="32"/>
       <c r="L33" s="56"/>
       <c r="M33" s="54"/>
-      <c r="N33" s="104" t="str">
+      <c r="N33" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O33" s="54"/>
       <c r="P33" s="54"/>
       <c r="Q33" s="54"/>
-      <c r="R33" s="104" t="str">
+      <c r="R33" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5473,14 +5489,14 @@
       <c r="K34" s="32"/>
       <c r="L34" s="56"/>
       <c r="M34" s="54"/>
-      <c r="N34" s="104" t="str">
+      <c r="N34" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O34" s="54"/>
       <c r="P34" s="54"/>
       <c r="Q34" s="54"/>
-      <c r="R34" s="104" t="str">
+      <c r="R34" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5512,14 +5528,14 @@
       <c r="K35" s="32"/>
       <c r="L35" s="56"/>
       <c r="M35" s="54"/>
-      <c r="N35" s="104" t="str">
+      <c r="N35" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O35" s="54"/>
       <c r="P35" s="54"/>
       <c r="Q35" s="54"/>
-      <c r="R35" s="104" t="str">
+      <c r="R35" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5535,7 +5551,7 @@
       <c r="Y35" s="57"/>
     </row>
     <row r="36" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="60" t="s">
         <v>98</v>
       </c>
       <c r="C36" s="41"/>
@@ -5549,14 +5565,14 @@
       <c r="K36" s="32"/>
       <c r="L36" s="56"/>
       <c r="M36" s="54"/>
-      <c r="N36" s="104" t="str">
+      <c r="N36" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O36" s="54"/>
       <c r="P36" s="54"/>
       <c r="Q36" s="54"/>
-      <c r="R36" s="104" t="str">
+      <c r="R36" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5573,7 +5589,7 @@
     </row>
     <row r="37" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="41"/>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="60" t="s">
         <v>99</v>
       </c>
       <c r="D37" s="54">
@@ -5594,14 +5610,14 @@
       <c r="K37" s="32"/>
       <c r="L37" s="56"/>
       <c r="M37" s="54"/>
-      <c r="N37" s="104" t="str">
+      <c r="N37" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O37" s="54"/>
       <c r="P37" s="54"/>
       <c r="Q37" s="54"/>
-      <c r="R37" s="104" t="str">
+      <c r="R37" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5618,7 +5634,7 @@
     </row>
     <row r="38" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="41"/>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="60" t="s">
         <v>100</v>
       </c>
       <c r="D38" s="54">
@@ -5635,14 +5651,14 @@
       <c r="K38" s="32"/>
       <c r="L38" s="56"/>
       <c r="M38" s="54"/>
-      <c r="N38" s="104" t="str">
+      <c r="N38" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O38" s="54"/>
       <c r="P38" s="54"/>
       <c r="Q38" s="54"/>
-      <c r="R38" s="104" t="str">
+      <c r="R38" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5674,7 +5690,7 @@
       <c r="K39" s="32"/>
       <c r="L39" s="56"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="104" t="str">
+      <c r="N39" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -5683,7 +5699,7 @@
       <c r="Q39" s="54">
         <v>12</v>
       </c>
-      <c r="R39" s="104" t="str">
+      <c r="R39" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5715,14 +5731,14 @@
       <c r="K40" s="32"/>
       <c r="L40" s="56"/>
       <c r="M40" s="54"/>
-      <c r="N40" s="104" t="str">
+      <c r="N40" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O40" s="54"/>
       <c r="P40" s="54"/>
       <c r="Q40" s="54"/>
-      <c r="R40" s="104" t="str">
+      <c r="R40" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5752,14 +5768,14 @@
       <c r="K41" s="32"/>
       <c r="L41" s="56"/>
       <c r="M41" s="54"/>
-      <c r="N41" s="104" t="str">
+      <c r="N41" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O41" s="54"/>
       <c r="P41" s="54"/>
       <c r="Q41" s="54"/>
-      <c r="R41" s="104" t="str">
+      <c r="R41" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5791,14 +5807,14 @@
       <c r="K42" s="32"/>
       <c r="L42" s="56"/>
       <c r="M42" s="54"/>
-      <c r="N42" s="104" t="str">
+      <c r="N42" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O42" s="54"/>
       <c r="P42" s="54"/>
       <c r="Q42" s="54"/>
-      <c r="R42" s="104" t="str">
+      <c r="R42" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5815,7 +5831,7 @@
     </row>
     <row r="43" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B43" s="41"/>
-      <c r="C43" s="61"/>
+      <c r="C43" s="60"/>
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
       <c r="F43" s="54"/>
@@ -5826,14 +5842,14 @@
       <c r="K43" s="32"/>
       <c r="L43" s="56"/>
       <c r="M43" s="54"/>
-      <c r="N43" s="104" t="str">
+      <c r="N43" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O43" s="54"/>
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
-      <c r="R43" s="104" t="str">
+      <c r="R43" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5846,7 +5862,7 @@
       <c r="Y43" s="57"/>
     </row>
     <row r="44" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B44" s="61"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="41"/>
       <c r="D44" s="54"/>
       <c r="E44" s="54"/>
@@ -5858,14 +5874,14 @@
       <c r="K44" s="32"/>
       <c r="L44" s="56"/>
       <c r="M44" s="54"/>
-      <c r="N44" s="104" t="str">
+      <c r="N44" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O44" s="54"/>
       <c r="P44" s="54"/>
       <c r="Q44" s="54"/>
-      <c r="R44" s="104" t="str">
+      <c r="R44" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5878,7 +5894,7 @@
       <c r="Y44" s="57"/>
     </row>
     <row r="45" spans="2:25" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B45" s="61"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="41"/>
       <c r="D45" s="54"/>
       <c r="E45" s="54"/>
@@ -5890,14 +5906,14 @@
       <c r="K45" s="32"/>
       <c r="L45" s="56"/>
       <c r="M45" s="54"/>
-      <c r="N45" s="104" t="str">
+      <c r="N45" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O45" s="54"/>
       <c r="P45" s="54"/>
       <c r="Q45" s="54"/>
-      <c r="R45" s="104" t="str">
+      <c r="R45" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5922,19 +5938,19 @@
       <c r="K46" s="32"/>
       <c r="L46" s="56"/>
       <c r="M46" s="54"/>
-      <c r="N46" s="104" t="str">
+      <c r="N46" s="74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="O46" s="54"/>
       <c r="P46" s="54"/>
       <c r="Q46" s="54"/>
-      <c r="R46" s="104" t="str">
+      <c r="R46" s="74" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S46" s="54"/>
-      <c r="T46" s="74"/>
+      <c r="T46" s="73"/>
       <c r="U46" s="54"/>
       <c r="V46" s="54"/>
       <c r="W46" s="54"/>
@@ -5942,80 +5958,80 @@
       <c r="Y46" s="57"/>
     </row>
     <row r="47" spans="2:25" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="64">
+      <c r="C47" s="62"/>
+      <c r="D47" s="63">
         <f>SUM(D8:D46)</f>
         <v>49.4</v>
       </c>
-      <c r="E47" s="64">
+      <c r="E47" s="63">
         <f>SUM(E8:E46)</f>
         <v>66</v>
       </c>
-      <c r="F47" s="64">
+      <c r="F47" s="63">
         <f>SUM(F8:F46)</f>
         <v>34.5</v>
       </c>
-      <c r="G47" s="64">
+      <c r="G47" s="63">
         <f>SUM(G8:G46)</f>
         <v>23.5</v>
       </c>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64">
+      <c r="H47" s="63"/>
+      <c r="I47" s="63">
         <f>SUM(I8:I46)</f>
         <v>38.5</v>
       </c>
-      <c r="J47" s="65">
+      <c r="J47" s="64">
         <f>SUM(J8:J46)</f>
         <v>0</v>
       </c>
       <c r="K47" s="32"/>
-      <c r="L47" s="66">
+      <c r="L47" s="65">
         <f>SUM(L8:L46)</f>
         <v>156</v>
       </c>
-      <c r="M47" s="64">
+      <c r="M47" s="63">
         <f>SUM(M8:M46)</f>
         <v>37</v>
       </c>
-      <c r="N47" s="64">
+      <c r="N47" s="63">
         <f>SUM(N8:N46)</f>
         <v>77</v>
       </c>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64">
+      <c r="O47" s="63"/>
+      <c r="P47" s="63">
         <f>SUM(P8:P46)</f>
         <v>54</v>
       </c>
-      <c r="Q47" s="64">
+      <c r="Q47" s="63">
         <f>SUM(Q8:Q46)</f>
         <v>59</v>
       </c>
-      <c r="R47" s="64">
+      <c r="R47" s="63">
         <f>SUM(R8:R46)</f>
         <v>-1</v>
       </c>
-      <c r="S47" s="64"/>
-      <c r="T47" s="67">
+      <c r="S47" s="63"/>
+      <c r="T47" s="66">
         <f>SUM(T8:T46)</f>
         <v>339.4</v>
       </c>
-      <c r="U47" s="64"/>
-      <c r="V47" s="64">
+      <c r="U47" s="63"/>
+      <c r="V47" s="63">
         <f>SUM(V8:V46)</f>
         <v>0</v>
       </c>
-      <c r="W47" s="64">
+      <c r="W47" s="63">
         <f>SUM(W8:W46)</f>
         <v>0</v>
       </c>
-      <c r="X47" s="64">
+      <c r="X47" s="63">
         <f>SUM(X8:X46)</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="64">
+      <c r="Y47" s="63">
         <f>SUM(Y8:Y46)</f>
         <v>0</v>
       </c>
@@ -6037,7 +6053,7 @@
       <c r="Q48" s="34"/>
       <c r="R48" s="34"/>
       <c r="S48" s="34"/>
-      <c r="T48" s="73"/>
+      <c r="T48" s="72"/>
       <c r="U48" s="34"/>
       <c r="V48" s="34"/>
       <c r="W48" s="34"/>
@@ -6061,7 +6077,7 @@
       <c r="Q49" s="34"/>
       <c r="R49" s="34"/>
       <c r="S49" s="34"/>
-      <c r="T49" s="73"/>
+      <c r="T49" s="72"/>
       <c r="U49" s="34"/>
       <c r="V49" s="34"/>
       <c r="W49" s="34"/>
@@ -6085,7 +6101,7 @@
       <c r="Q50" s="34"/>
       <c r="R50" s="34"/>
       <c r="S50" s="34"/>
-      <c r="T50" s="73"/>
+      <c r="T50" s="72"/>
       <c r="U50" s="34"/>
       <c r="V50" s="34"/>
       <c r="W50" s="34"/>
@@ -6109,7 +6125,7 @@
       <c r="Q51" s="34"/>
       <c r="R51" s="34"/>
       <c r="S51" s="34"/>
-      <c r="T51" s="73"/>
+      <c r="T51" s="72"/>
       <c r="U51" s="34"/>
       <c r="V51" s="34"/>
       <c r="W51" s="34"/>
@@ -6142,8 +6158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:Y34"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6166,7 +6182,7 @@
     <col min="17" max="17" width="6.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" style="34" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="1.7109375" style="34" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="73" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="72" customWidth="1"/>
     <col min="21" max="21" width="2.28515625" style="34" customWidth="1"/>
     <col min="22" max="24" width="9.28515625" style="34"/>
     <col min="25" max="25" width="9.7109375" style="34" bestFit="1" customWidth="1"/>
@@ -6174,88 +6190,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
@@ -6264,39 +6280,39 @@
       <c r="C6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="31"/>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="101" t="s">
         <v>80</v>
       </c>
       <c r="K6" s="32"/>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="P6" s="96" t="s">
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="P6" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
       <c r="T6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="89" t="s">
+      <c r="V6" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="91"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="98"/>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" s="37"/>
@@ -6316,8 +6332,8 @@
       <c r="H7" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="95"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="102"/>
       <c r="K7" s="32"/>
       <c r="L7" s="30" t="s">
         <v>10</v>
@@ -6444,7 +6460,7 @@
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="71" t="s">
         <v>97</v>
       </c>
       <c r="D11" s="44"/>
@@ -6577,7 +6593,7 @@
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B15" s="41"/>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="70" t="s">
         <v>88</v>
       </c>
       <c r="D15" s="47"/>
@@ -6623,7 +6639,7 @@
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B16" s="41"/>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="70" t="s">
         <v>89</v>
       </c>
       <c r="D16" s="47"/>
@@ -6654,7 +6670,7 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B17" s="41"/>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="70" t="s">
         <v>90</v>
       </c>
       <c r="D17" s="47"/>
@@ -6685,7 +6701,7 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B18" s="41"/>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="70" t="s">
         <v>91</v>
       </c>
       <c r="D18" s="47"/>
@@ -6716,7 +6732,7 @@
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B19" s="41"/>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="70" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="47"/>
@@ -6747,7 +6763,7 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="41"/>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="60" t="s">
         <v>93</v>
       </c>
       <c r="D20" s="47"/>
@@ -6778,7 +6794,7 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="41"/>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="47"/>
@@ -6816,7 +6832,7 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="41"/>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="60" t="s">
         <v>95</v>
       </c>
       <c r="D22" s="47"/>
@@ -6847,7 +6863,7 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B23" s="41"/>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="60" t="s">
         <v>96</v>
       </c>
       <c r="D23" s="47"/>
@@ -6975,7 +6991,7 @@
       <c r="Y26" s="57"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="60" t="s">
         <v>98</v>
       </c>
       <c r="C27" s="41"/>
@@ -7007,7 +7023,7 @@
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B28" s="41"/>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="60" t="s">
         <v>99</v>
       </c>
       <c r="D28" s="54">
@@ -7042,7 +7058,7 @@
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B29" s="41"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="60" t="s">
         <v>100</v>
       </c>
       <c r="D29" s="54">
@@ -7171,80 +7187,80 @@
       <c r="Y32" s="57"/>
     </row>
     <row r="33" spans="2:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64">
+      <c r="C33" s="62"/>
+      <c r="D33" s="63">
         <f>SUM(D14:D32)</f>
         <v>33.700000000000003</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="63">
         <f>SUM(E14:E32)</f>
         <v>13.5</v>
       </c>
-      <c r="F33" s="64">
+      <c r="F33" s="63">
         <f>SUM(F14:F32)</f>
         <v>9</v>
       </c>
-      <c r="G33" s="64">
+      <c r="G33" s="63">
         <f>SUM(G14:G32)</f>
         <v>9</v>
       </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64">
+      <c r="H33" s="63"/>
+      <c r="I33" s="63">
         <f>SUM(I14:I32)</f>
         <v>27</v>
       </c>
-      <c r="J33" s="65">
+      <c r="J33" s="64">
         <f>SUM(J14:J32)</f>
         <v>0</v>
       </c>
       <c r="K33" s="32"/>
-      <c r="L33" s="66">
+      <c r="L33" s="65">
         <f>SUM(L14:L32)</f>
         <v>6</v>
       </c>
-      <c r="M33" s="64">
+      <c r="M33" s="63">
         <f>SUM(M14:M32)</f>
         <v>5</v>
       </c>
-      <c r="N33" s="64">
+      <c r="N33" s="63">
         <f>SUM(N14:N32)</f>
         <v>-0.16666666666666666</v>
       </c>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64">
+      <c r="O33" s="63"/>
+      <c r="P33" s="63">
         <f>SUM(P14:P32)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="64">
+      <c r="Q33" s="63">
         <f>SUM(Q14:Q32)</f>
         <v>12</v>
       </c>
-      <c r="R33" s="64">
+      <c r="R33" s="63">
         <f>SUM(R14:R32)</f>
         <v>0</v>
       </c>
-      <c r="S33" s="64"/>
-      <c r="T33" s="67">
+      <c r="S33" s="63"/>
+      <c r="T33" s="66">
         <f>SUM(T14:T32)</f>
         <v>109.2</v>
       </c>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64">
+      <c r="U33" s="63"/>
+      <c r="V33" s="63">
         <f>SUM(V14:V32)</f>
         <v>0</v>
       </c>
-      <c r="W33" s="64">
+      <c r="W33" s="63">
         <f>SUM(W14:W32)</f>
         <v>0</v>
       </c>
-      <c r="X33" s="64">
+      <c r="X33" s="63">
         <f>SUM(X14:X32)</f>
         <v>0</v>
       </c>
-      <c r="Y33" s="64">
+      <c r="Y33" s="63">
         <f>SUM(Y14:Y32)</f>
         <v>0</v>
       </c>
@@ -7273,10 +7289,14 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F04038-E823-4B8D-AE24-972360ACE2FA}">
-  <dimension ref="B2:Y34"/>
+  <dimension ref="B2:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7292,7 +7312,7 @@
     <col min="11" max="11" width="2.140625" style="5" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="5"/>
     <col min="13" max="13" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="81" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2.28515625" style="5" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -7305,88 +7325,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
     </row>
     <row r="3" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
     </row>
     <row r="6" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
@@ -7395,44 +7415,44 @@
       <c r="C6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="91"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="101" t="s">
         <v>80</v>
       </c>
       <c r="K6" s="32"/>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
       <c r="O6" s="34"/>
-      <c r="P6" s="96" t="s">
+      <c r="P6" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
       <c r="S6" s="34"/>
       <c r="T6" s="35" t="s">
         <v>11</v>
       </c>
       <c r="U6" s="34"/>
-      <c r="V6" s="89" t="s">
+      <c r="V6" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="90"/>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="91"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="98"/>
     </row>
     <row r="7" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="37"/>
@@ -7452,8 +7472,8 @@
       <c r="H7" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="95"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="102"/>
       <c r="K7" s="32"/>
       <c r="L7" s="30" t="s">
         <v>10</v>
@@ -7461,8 +7481,8 @@
       <c r="M7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="33" t="s">
-        <v>20</v>
+      <c r="N7" s="75" t="s">
+        <v>126</v>
       </c>
       <c r="O7" s="34"/>
       <c r="P7" s="33" t="s">
@@ -7507,7 +7527,7 @@
       <c r="K8" s="32"/>
       <c r="L8" s="42"/>
       <c r="M8" s="44"/>
-      <c r="N8" s="45"/>
+      <c r="N8" s="76"/>
       <c r="O8" s="34"/>
       <c r="P8" s="44"/>
       <c r="Q8" s="44"/>
@@ -7538,8 +7558,8 @@
       <c r="K9" s="32"/>
       <c r="L9" s="42"/>
       <c r="M9" s="44"/>
-      <c r="N9" s="49">
-        <f t="shared" ref="N9" si="0">IF(L9=0,0,(M9-L9)/L9)</f>
+      <c r="N9" s="77">
+        <f>L9-M9</f>
         <v>0</v>
       </c>
       <c r="O9" s="34"/>
@@ -7548,7 +7568,7 @@
         <v>3</v>
       </c>
       <c r="R9" s="49">
-        <f t="shared" ref="R9" si="1">IF(P9=0,0,(Q9-P9)/P9)</f>
+        <f t="shared" ref="R9" si="0">IF(P9=0,0,(Q9-P9)/P9)</f>
         <v>0</v>
       </c>
       <c r="S9" s="50"/>
@@ -7586,7 +7606,7 @@
       <c r="K10" s="32"/>
       <c r="L10" s="42"/>
       <c r="M10" s="44"/>
-      <c r="N10" s="49"/>
+      <c r="N10" s="77"/>
       <c r="O10" s="34"/>
       <c r="P10" s="44"/>
       <c r="Q10" s="44">
@@ -7619,7 +7639,7 @@
       <c r="K11" s="32"/>
       <c r="L11" s="42"/>
       <c r="M11" s="44"/>
-      <c r="N11" s="45"/>
+      <c r="N11" s="76"/>
       <c r="O11" s="44"/>
       <c r="P11" s="44"/>
       <c r="Q11" s="44"/>
@@ -7647,7 +7667,7 @@
       <c r="K12" s="32"/>
       <c r="L12" s="42"/>
       <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
+      <c r="N12" s="76"/>
       <c r="O12" s="44"/>
       <c r="P12" s="44"/>
       <c r="Q12" s="44">
@@ -7684,15 +7704,15 @@
       <c r="K13" s="32"/>
       <c r="L13" s="42"/>
       <c r="M13" s="44"/>
-      <c r="N13" s="49">
-        <f t="shared" ref="N13" si="2">IF(L13=0,0,(M13-L13)/L13)</f>
+      <c r="N13" s="77">
+        <f t="shared" ref="N13" si="1">IF(L13=0,0,(M13-L13)/L13)</f>
         <v>0</v>
       </c>
       <c r="O13" s="44"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="49">
-        <f t="shared" ref="R13" si="3">IF(P13=0,0,(Q13-P13)/P13)</f>
+        <f t="shared" ref="R13" si="2">IF(P13=0,0,(Q13-P13)/P13)</f>
         <v>0</v>
       </c>
       <c r="S13" s="44"/>
@@ -7723,7 +7743,7 @@
       <c r="K14" s="32"/>
       <c r="L14" s="56"/>
       <c r="M14" s="54"/>
-      <c r="N14" s="53"/>
+      <c r="N14" s="78"/>
       <c r="O14" s="54"/>
       <c r="P14" s="54"/>
       <c r="Q14" s="54"/>
@@ -7739,225 +7759,225 @@
       <c r="X14" s="54"/>
       <c r="Y14" s="57"/>
     </row>
-    <row r="15" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="41" t="s">
+    <row r="15" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>115</v>
       </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="59"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="49"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="78"/>
       <c r="O15" s="34"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="50"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="34"/>
       <c r="T15" s="46">
-        <f>D15+E15+F15+G15+H15+I15+J15+M15+Q15</f>
+        <f t="shared" ref="T15:T24" si="3">D15+E15+F15+G15+H15+I15+J15+M15+Q15</f>
         <v>0</v>
       </c>
       <c r="U15" s="34"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="45"/>
-    </row>
-    <row r="16" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="57"/>
+    </row>
+    <row r="16" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41"/>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="42">
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56">
         <v>1</v>
       </c>
-      <c r="J16" s="43"/>
+      <c r="J16" s="59"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="49"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="78"/>
       <c r="O16" s="34"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="50"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="34"/>
       <c r="T16" s="46">
-        <f t="shared" ref="T16:T25" si="4">D16+E16+F16+G16+H16+I16+J16+M16+Q16</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U16" s="34"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="45"/>
-    </row>
-    <row r="17" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="57"/>
+    </row>
+    <row r="17" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48">
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="56">
         <v>3</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="49"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="78"/>
       <c r="O17" s="34"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="50"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="34"/>
       <c r="T17" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="U17" s="34"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="44"/>
-      <c r="Y17" s="45"/>
-    </row>
-    <row r="18" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="57"/>
+    </row>
+    <row r="18" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41"/>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48">
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="56">
         <v>4</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="59"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="49"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="78"/>
       <c r="O18" s="34"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44">
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54">
         <v>9</v>
       </c>
-      <c r="R18" s="49"/>
-      <c r="S18" s="50"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="34"/>
       <c r="T18" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="U18" s="34"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="45"/>
-    </row>
-    <row r="19" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="57"/>
+    </row>
+    <row r="19" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48">
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="56">
         <v>1</v>
       </c>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="59"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="49"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="78"/>
       <c r="O19" s="34"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="50"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="34"/>
       <c r="T19" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U19" s="34"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="45"/>
-    </row>
-    <row r="20" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="57"/>
+    </row>
+    <row r="20" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="41"/>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="56">
+        <v>13</v>
+      </c>
+      <c r="I20" s="56">
+        <v>2</v>
+      </c>
+      <c r="J20" s="59"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="56">
+        <v>62</v>
+      </c>
+      <c r="M20" s="54">
+        <v>7</v>
+      </c>
+      <c r="N20" s="77">
+        <f>L20-M20</f>
+        <v>55</v>
+      </c>
+      <c r="O20" s="34"/>
+      <c r="P20" s="54">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="46">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="U20" s="34"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="57"/>
+    </row>
+    <row r="21" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48">
-        <v>13</v>
-      </c>
-      <c r="I20" s="42">
-        <v>2</v>
-      </c>
-      <c r="J20" s="43"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="42">
-        <v>62</v>
-      </c>
-      <c r="M20" s="44">
-        <v>7</v>
-      </c>
-      <c r="N20" s="49">
-        <f t="shared" ref="N20" si="5">IF(L20=0,0,(M20-L20)/L20)</f>
-        <v>-0.88709677419354838</v>
-      </c>
-      <c r="O20" s="34"/>
-      <c r="P20" s="44">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="46">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="U20" s="34"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="45"/>
-    </row>
-    <row r="21" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="58">
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="56">
         <v>10.5</v>
       </c>
       <c r="I21" s="56"/>
@@ -7967,14 +7987,14 @@
       <c r="M21" s="54">
         <v>23</v>
       </c>
-      <c r="N21" s="53"/>
+      <c r="N21" s="78"/>
       <c r="O21" s="34"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="53"/>
-      <c r="S21" s="50"/>
+      <c r="S21" s="34"/>
       <c r="T21" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33.5</v>
       </c>
       <c r="U21" s="34"/>
@@ -7983,16 +8003,16 @@
       <c r="X21" s="54"/>
       <c r="Y21" s="57"/>
     </row>
-    <row r="22" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="41"/>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="58"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="56">
         <v>1</v>
       </c>
@@ -8002,14 +8022,14 @@
       <c r="M22" s="54">
         <v>2</v>
       </c>
-      <c r="N22" s="53"/>
+      <c r="N22" s="78"/>
       <c r="O22" s="34"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
       <c r="R22" s="53"/>
-      <c r="S22" s="50"/>
+      <c r="S22" s="34"/>
       <c r="T22" s="46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="U22" s="34"/>
@@ -8018,32 +8038,32 @@
       <c r="X22" s="54"/>
       <c r="Y22" s="57"/>
     </row>
-    <row r="23" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="41"/>
-      <c r="C23" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="58"/>
+      <c r="C23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="56"/>
       <c r="I23" s="56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="59"/>
       <c r="K23" s="32"/>
       <c r="L23" s="56"/>
       <c r="M23" s="54"/>
-      <c r="N23" s="53"/>
+      <c r="N23" s="78"/>
       <c r="O23" s="34"/>
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
       <c r="R23" s="53"/>
-      <c r="S23" s="50"/>
+      <c r="S23" s="34"/>
       <c r="T23" s="46">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="U23" s="34"/>
       <c r="V23" s="54"/>
@@ -8051,32 +8071,38 @@
       <c r="X23" s="54"/>
       <c r="Y23" s="57"/>
     </row>
-    <row r="24" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
-      <c r="C24" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="54">
+        <v>8</v>
+      </c>
+      <c r="E24" s="54">
+        <v>13.5</v>
+      </c>
+      <c r="F24" s="54">
+        <v>24.5</v>
+      </c>
+      <c r="G24" s="54"/>
       <c r="H24" s="56"/>
       <c r="I24" s="56">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="J24" s="59"/>
       <c r="K24" s="32"/>
       <c r="L24" s="56"/>
       <c r="M24" s="54"/>
-      <c r="N24" s="53"/>
+      <c r="N24" s="78"/>
       <c r="O24" s="34"/>
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
-      <c r="R24" s="57"/>
+      <c r="R24" s="53"/>
       <c r="S24" s="34"/>
       <c r="T24" s="46">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>50.5</v>
       </c>
       <c r="U24" s="34"/>
       <c r="V24" s="54"/>
@@ -8085,68 +8111,66 @@
       <c r="Y24" s="57"/>
     </row>
     <row r="25" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="44">
-        <v>8</v>
-      </c>
-      <c r="E25" s="44">
-        <v>13.5</v>
-      </c>
-      <c r="F25" s="44">
-        <v>24.5</v>
-      </c>
-      <c r="G25" s="44"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56">
-        <v>4.5</v>
-      </c>
-      <c r="J25" s="59"/>
+      <c r="B25" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="55"/>
       <c r="K25" s="32"/>
       <c r="L25" s="56"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="34"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="54"/>
       <c r="P25" s="54"/>
       <c r="Q25" s="54"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="34"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="54"/>
       <c r="T25" s="46">
-        <f t="shared" si="4"/>
-        <v>50.5</v>
-      </c>
-      <c r="U25" s="34"/>
+        <f t="shared" ref="T25:T31" si="4">D25+E25+F25+G25+H25+I25+J25+M25+Q25</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="54"/>
       <c r="V25" s="54"/>
       <c r="W25" s="54"/>
       <c r="X25" s="54"/>
       <c r="Y25" s="57"/>
     </row>
     <row r="26" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="54">
+        <v>5</v>
+      </c>
+      <c r="E26" s="54">
+        <v>13.5</v>
+      </c>
       <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
+      <c r="G26" s="54">
+        <v>2</v>
+      </c>
       <c r="H26" s="54"/>
       <c r="I26" s="54"/>
       <c r="J26" s="55"/>
       <c r="K26" s="32"/>
       <c r="L26" s="56"/>
       <c r="M26" s="54"/>
-      <c r="N26" s="53"/>
+      <c r="N26" s="78"/>
       <c r="O26" s="54"/>
       <c r="P26" s="54"/>
       <c r="Q26" s="54"/>
       <c r="R26" s="53"/>
       <c r="S26" s="54"/>
       <c r="T26" s="46">
-        <f t="shared" ref="T26:T32" si="6">D26+E26+F26+G26+H26+I26+J26+M26+Q26</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>20.5</v>
       </c>
       <c r="U26" s="54"/>
       <c r="V26" s="54"/>
@@ -8155,35 +8179,31 @@
       <c r="Y26" s="57"/>
     </row>
     <row r="27" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="61"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="54">
-        <v>5</v>
-      </c>
-      <c r="E27" s="54">
-        <v>13.5</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="54"/>
-      <c r="G27" s="54">
-        <v>2</v>
-      </c>
+      <c r="G27" s="54"/>
       <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
+      <c r="I27" s="54">
+        <v>1</v>
+      </c>
       <c r="J27" s="55"/>
       <c r="K27" s="32"/>
       <c r="L27" s="56"/>
       <c r="M27" s="54"/>
-      <c r="N27" s="53"/>
+      <c r="N27" s="78"/>
       <c r="O27" s="54"/>
       <c r="P27" s="54"/>
       <c r="Q27" s="54"/>
       <c r="R27" s="53"/>
       <c r="S27" s="54"/>
       <c r="T27" s="46">
-        <f t="shared" si="6"/>
-        <v>20.5</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="U27" s="54"/>
       <c r="V27" s="54"/>
@@ -8192,31 +8212,33 @@
       <c r="Y27" s="57"/>
     </row>
     <row r="28" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="61"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+        <v>100</v>
+      </c>
+      <c r="D28" s="54">
+        <v>2.7</v>
+      </c>
+      <c r="E28" s="54">
+        <v>10</v>
+      </c>
       <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
-      <c r="I28" s="54">
-        <v>1</v>
-      </c>
+      <c r="I28" s="54"/>
       <c r="J28" s="55"/>
       <c r="K28" s="32"/>
       <c r="L28" s="56"/>
       <c r="M28" s="54"/>
-      <c r="N28" s="53"/>
+      <c r="N28" s="78"/>
       <c r="O28" s="54"/>
       <c r="P28" s="54"/>
       <c r="Q28" s="54"/>
       <c r="R28" s="53"/>
       <c r="S28" s="54"/>
       <c r="T28" s="46">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>12.7</v>
       </c>
       <c r="U28" s="54"/>
       <c r="V28" s="54"/>
@@ -8225,16 +8247,12 @@
       <c r="Y28" s="57"/>
     </row>
     <row r="29" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="61"/>
-      <c r="C29" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="54">
-        <v>2.7</v>
-      </c>
-      <c r="E29" s="54">
-        <v>10</v>
-      </c>
+      <c r="B29" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
       <c r="F29" s="54"/>
       <c r="G29" s="54"/>
       <c r="H29" s="54"/>
@@ -8243,15 +8261,15 @@
       <c r="K29" s="32"/>
       <c r="L29" s="56"/>
       <c r="M29" s="54"/>
-      <c r="N29" s="53"/>
+      <c r="N29" s="78"/>
       <c r="O29" s="54"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="54"/>
       <c r="R29" s="53"/>
       <c r="S29" s="54"/>
       <c r="T29" s="46">
-        <f t="shared" si="6"/>
-        <v>12.7</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U29" s="54"/>
       <c r="V29" s="54"/>
@@ -8260,29 +8278,31 @@
       <c r="Y29" s="57"/>
     </row>
     <row r="30" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41" t="s">
+        <v>121</v>
+      </c>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
       <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
+      <c r="G30" s="54">
+        <v>2</v>
+      </c>
       <c r="H30" s="54"/>
       <c r="I30" s="54"/>
       <c r="J30" s="55"/>
       <c r="K30" s="32"/>
       <c r="L30" s="56"/>
       <c r="M30" s="54"/>
-      <c r="N30" s="53"/>
+      <c r="N30" s="78"/>
       <c r="O30" s="54"/>
       <c r="P30" s="54"/>
       <c r="Q30" s="54"/>
       <c r="R30" s="53"/>
       <c r="S30" s="54"/>
       <c r="T30" s="46">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="U30" s="54"/>
       <c r="V30" s="54"/>
@@ -8292,30 +8312,26 @@
     </row>
     <row r="31" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="41"/>
-      <c r="C31" s="41" t="s">
-        <v>121</v>
-      </c>
+      <c r="C31" s="41"/>
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
       <c r="F31" s="54"/>
-      <c r="G31" s="54">
-        <v>2</v>
-      </c>
+      <c r="G31" s="54"/>
       <c r="H31" s="54"/>
       <c r="I31" s="54"/>
       <c r="J31" s="55"/>
       <c r="K31" s="32"/>
       <c r="L31" s="56"/>
       <c r="M31" s="54"/>
-      <c r="N31" s="53"/>
+      <c r="N31" s="78"/>
       <c r="O31" s="54"/>
       <c r="P31" s="54"/>
       <c r="Q31" s="54"/>
       <c r="R31" s="53"/>
       <c r="S31" s="54"/>
       <c r="T31" s="46">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U31" s="54"/>
       <c r="V31" s="54"/>
@@ -8323,137 +8339,108 @@
       <c r="X31" s="54"/>
       <c r="Y31" s="57"/>
     </row>
-    <row r="32" spans="2:25" s="36" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="55"/>
+    <row r="32" spans="2:25" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="63">
+        <f>SUM(D8:D31)</f>
+        <v>15.7</v>
+      </c>
+      <c r="E32" s="63">
+        <f t="shared" ref="E32:N32" si="5">SUM(E8:E31)</f>
+        <v>51.5</v>
+      </c>
+      <c r="F32" s="63">
+        <f t="shared" si="5"/>
+        <v>24.5</v>
+      </c>
+      <c r="G32" s="63">
+        <f t="shared" si="5"/>
+        <v>14.5</v>
+      </c>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63">
+        <f t="shared" si="5"/>
+        <v>11.5</v>
+      </c>
+      <c r="J32" s="64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K32" s="32"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="46">
-        <f t="shared" si="6"/>
+      <c r="L32" s="65">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="M32" s="63">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="N32" s="79">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63">
+        <f>SUM(P8:P31)</f>
+        <v>40</v>
+      </c>
+      <c r="Q32" s="63">
+        <f>SUM(Q8:Q31)</f>
+        <v>20</v>
+      </c>
+      <c r="R32" s="63">
+        <f>SUM(R8:R31)</f>
         <v>0</v>
       </c>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="54"/>
-      <c r="Y32" s="57"/>
-    </row>
-    <row r="33" spans="2:25" s="36" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64">
-        <f>SUM(D8:D32)</f>
-        <v>15.7</v>
-      </c>
-      <c r="E33" s="64">
-        <f t="shared" ref="E33:N33" si="7">SUM(E8:E32)</f>
-        <v>51.5</v>
-      </c>
-      <c r="F33" s="64">
-        <f t="shared" si="7"/>
-        <v>24.5</v>
-      </c>
-      <c r="G33" s="64">
-        <f t="shared" si="7"/>
-        <v>14.5</v>
-      </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64">
-        <f t="shared" si="7"/>
-        <v>11.5</v>
-      </c>
-      <c r="J33" s="65">
-        <f t="shared" si="7"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="66">
+        <f>SUM(T8:T31)</f>
+        <v>201.2</v>
+      </c>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63">
+        <f>SUM(V8:V31)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="66">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="M33" s="64">
-        <f t="shared" si="7"/>
-        <v>32</v>
-      </c>
-      <c r="N33" s="64">
-        <f t="shared" si="7"/>
-        <v>-0.88709677419354838</v>
-      </c>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64">
-        <f>SUM(P8:P32)</f>
-        <v>40</v>
-      </c>
-      <c r="Q33" s="64">
-        <f>SUM(Q8:Q32)</f>
-        <v>20</v>
-      </c>
-      <c r="R33" s="64">
-        <f>SUM(R8:R32)</f>
+      <c r="W32" s="63">
+        <f>SUM(W8:W31)</f>
         <v>0</v>
       </c>
-      <c r="S33" s="64"/>
-      <c r="T33" s="67">
-        <f>SUM(T8:T32)</f>
-        <v>201.2</v>
-      </c>
-      <c r="U33" s="64"/>
-      <c r="V33" s="64">
-        <f>SUM(V8:V32)</f>
+      <c r="X32" s="63">
+        <f>SUM(X8:X31)</f>
         <v>0</v>
       </c>
-      <c r="W33" s="64">
-        <f>SUM(W8:W32)</f>
+      <c r="Y32" s="63">
+        <f>SUM(Y8:Y31)</f>
         <v>0</v>
       </c>
-      <c r="X33" s="64">
-        <f>SUM(X8:X32)</f>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="64">
-        <f>SUM(Y8:Y32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" s="68" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="69"/>
-      <c r="P34" s="69"/>
-      <c r="Q34" s="69"/>
-      <c r="R34" s="69"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="70"/>
-      <c r="U34" s="69"/>
-      <c r="V34" s="69"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="69"/>
-      <c r="Y34" s="69"/>
+    </row>
+    <row r="33" spans="4:25" s="67" customFormat="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8467,11 +8454,12 @@
     <mergeCell ref="P6:R6"/>
     <mergeCell ref="V6:Y6"/>
   </mergeCells>
-  <conditionalFormatting sqref="V9:V10 V15:V18">
+  <conditionalFormatting sqref="V9:V10">
     <cfRule type="expression" priority="1">
       <formula>V9/$Y9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>